--- a/spreadsheets/stats/stats.xlsx
+++ b/spreadsheets/stats/stats.xlsx
@@ -8,15 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giovi\IdeaProjects\ChatGPTOracle\spreadsheets\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942F24FA-2962-4164-A5F6-4F8E240F2DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8BFA8E-DE71-4DC3-95F9-12A7599B9747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Camera" sheetId="1" r:id="rId1"/>
     <sheet name="Monitor" sheetId="2" r:id="rId2"/>
     <sheet name="Notebook" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Camera!$A$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Camera!$A$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Camera!$B$2:$T$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Camera!$B$3:$T$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Camera!$B$4:$T$4</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>F1 score</t>
   </si>
@@ -69,12 +76,18 @@
   <si>
     <t>Monitor</t>
   </si>
+  <si>
+    <t>Percentuale casi positivi</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +97,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -111,10 +132,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -212,7 +252,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Camera!$A$2</c:f>
+              <c:f>Camera!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -231,23 +271,77 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Camera!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Camera!$B$2:$T$2</c:f>
+              <c:f>Camera!$B$3:$T$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -323,7 +417,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Camera!$A$3</c:f>
+              <c:f>Camera!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -342,23 +436,77 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Camera!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Camera!$B$3:$T$3</c:f>
+              <c:f>Camera!$B$4:$T$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -437,7 +585,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2078536735"/>
         <c:axId val="2079226735"/>
@@ -449,6 +596,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -551,7 +699,10 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -711,7 +862,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Camera!$A$4</c:f>
+              <c:f>Camera!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -730,23 +881,77 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Camera!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Camera!$B$4:$T$4</c:f>
+              <c:f>Camera!$B$5:$T$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -822,7 +1027,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Camera!$A$5</c:f>
+              <c:f>Camera!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -841,23 +1046,77 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Camera!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Camera!$B$5:$T$5</c:f>
+              <c:f>Camera!$B$6:$T$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -936,7 +1195,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2078524255"/>
         <c:axId val="945989247"/>
@@ -948,7 +1206,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1216,7 +1474,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Camera!$A$8</c:f>
+              <c:f>Camera!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1237,9 +1495,75 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Camera!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Camera!$B$8:$T$8</c:f>
+              <c:f>Camera!$B$9:$T$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1315,7 +1639,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Camera!$A$9</c:f>
+              <c:f>Camera!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1336,9 +1660,75 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Camera!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Camera!$B$9:$T$9</c:f>
+              <c:f>Camera!$B$10:$T$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1428,6 +1818,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1694,7 +2085,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Monitor!$A$2</c:f>
+              <c:f>Monitor!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1715,9 +2106,75 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Monitor!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Monitor!$B$2:$T$2</c:f>
+              <c:f>Monitor!$B$3:$T$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1793,7 +2250,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Monitor!$A$3</c:f>
+              <c:f>Monitor!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1814,9 +2271,75 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Monitor!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Monitor!$B$3:$T$3</c:f>
+              <c:f>Monitor!$B$4:$T$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1906,6 +2429,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2168,7 +2692,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Monitor!$A$4</c:f>
+              <c:f>Monitor!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2189,9 +2713,75 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Monitor!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Monitor!$B$4:$T$4</c:f>
+              <c:f>Monitor!$B$5:$T$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2267,7 +2857,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Monitor!$A$5</c:f>
+              <c:f>Monitor!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2288,9 +2878,75 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Monitor!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Monitor!$B$5:$T$5</c:f>
+              <c:f>Monitor!$B$6:$T$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2380,6 +3036,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2647,7 +3304,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Monitor!$A$8</c:f>
+              <c:f>Monitor!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2668,9 +3325,75 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Monitor!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Monitor!$B$8:$T$8</c:f>
+              <c:f>Monitor!$B$9:$T$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2746,7 +3469,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Monitor!$A$9</c:f>
+              <c:f>Monitor!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2767,9 +3490,75 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Monitor!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Monitor!$B$9:$T$9</c:f>
+              <c:f>Monitor!$B$10:$T$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2859,6 +3648,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3121,7 +3911,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Notebook!$A$2</c:f>
+              <c:f>Notebook!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3142,9 +3932,75 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Notebook!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Notebook!$B$2:$T$2</c:f>
+              <c:f>Notebook!$B$3:$T$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3220,7 +4076,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Notebook!$A$3</c:f>
+              <c:f>Notebook!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3241,9 +4097,75 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Notebook!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Notebook!$B$3:$T$3</c:f>
+              <c:f>Notebook!$B$4:$T$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3333,6 +4255,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3595,7 +4518,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Notebook!$A$4</c:f>
+              <c:f>Notebook!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3616,9 +4539,75 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Notebook!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Notebook!$B$4:$T$4</c:f>
+              <c:f>Notebook!$B$5:$T$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3694,7 +4683,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Notebook!$A$5</c:f>
+              <c:f>Notebook!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3715,9 +4704,75 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Notebook!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Notebook!$B$5:$T$5</c:f>
+              <c:f>Notebook!$B$6:$T$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3807,6 +4862,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4069,7 +5125,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Notebook!$A$8</c:f>
+              <c:f>Notebook!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4090,9 +5146,75 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Notebook!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Notebook!$B$8:$T$8</c:f>
+              <c:f>Notebook!$B$9:$T$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -4168,7 +5290,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Notebook!$A$9</c:f>
+              <c:f>Notebook!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4189,9 +5311,75 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Notebook!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Notebook!$B$9:$T$9</c:f>
+              <c:f>Notebook!$B$10:$T$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -4281,6 +5469,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9447,13 +10636,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>14285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9483,13 +10672,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9517,16 +10706,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>280987</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9560,14 +10749,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9596,14 +10785,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>519112</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9632,14 +10821,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>538162</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>233362</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9673,14 +10862,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9709,14 +10898,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>242888</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>185736</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9745,14 +10934,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>138112</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10043,651 +11232,677 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2">
+    </row>
+    <row r="2" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7">
         <v>0.05</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C2" s="7">
         <v>0.1</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D2" s="7">
         <v>0.15</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E2" s="7">
         <v>0.2</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F2" s="7">
         <v>0.25</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G2" s="7">
         <v>0.3</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H2" s="7">
         <v>0.35</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I2" s="7">
         <v>0.4</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J2" s="7">
         <v>0.45</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K2" s="7">
         <v>0.5</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L2" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M2" s="7">
         <v>0.6</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N2" s="7">
         <v>0.65</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O2" s="7">
         <v>0.7</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P2" s="7">
         <v>0.75</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q2" s="7">
         <v>0.8</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R2" s="7">
         <v>0.85</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S2" s="7">
         <v>0.9</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T2" s="7">
         <v>0.95</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <f>(2*(B4*B5)/(B4+B5))</f>
+      <c r="B3" s="2">
+        <f>(2*(B5*B6)/(B5+B6))</f>
         <v>0.84813753581661899</v>
       </c>
-      <c r="C2">
-        <f t="shared" ref="C2:T2" si="0">(2*(C4*C5)/(C4+C5))</f>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:T3" si="0">(2*(C5*C6)/(C5+C6))</f>
         <v>0.92913385826771655</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="2">
         <f t="shared" si="0"/>
         <v>0.9582887700534759</v>
       </c>
-      <c r="E2">
+      <c r="E3" s="2">
         <f t="shared" si="0"/>
         <v>0.96518218623481777</v>
       </c>
-      <c r="F2">
+      <c r="F3" s="2">
         <f t="shared" si="0"/>
         <v>0.96681847755367589</v>
       </c>
-      <c r="G2">
+      <c r="G3" s="2">
         <f t="shared" si="0"/>
         <v>0.98125689084895262</v>
       </c>
-      <c r="H2">
+      <c r="H3" s="2">
         <f t="shared" si="0"/>
         <v>0.98109640831758038</v>
       </c>
-      <c r="I2">
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>0.98252911813643917</v>
       </c>
-      <c r="J2">
+      <c r="J3" s="2">
         <f t="shared" si="0"/>
         <v>0.98235294117647065</v>
       </c>
-      <c r="K2">
+      <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>0.98667554963357762</v>
       </c>
-      <c r="L2">
+      <c r="L3" s="2">
         <f t="shared" si="0"/>
         <v>0.98817106460418569</v>
       </c>
-      <c r="M2">
+      <c r="M3" s="2">
         <f t="shared" si="0"/>
         <v>0.9869408168935816</v>
       </c>
-      <c r="N2">
+      <c r="N3" s="2">
         <f t="shared" si="0"/>
         <v>0.98815653964984562</v>
       </c>
-      <c r="O2">
+      <c r="O3" s="2">
         <f t="shared" si="0"/>
         <v>0.99043519846963168</v>
       </c>
-      <c r="P2">
+      <c r="P3" s="2">
         <f t="shared" si="0"/>
         <v>0.99083798882681573</v>
       </c>
-      <c r="Q2">
+      <c r="Q3" s="2">
         <f t="shared" si="0"/>
         <v>0.99057591623036645</v>
       </c>
-      <c r="R2">
+      <c r="R3" s="2">
         <f t="shared" si="0"/>
         <v>0.99370574350904806</v>
       </c>
-      <c r="S2">
+      <c r="S3" s="2">
         <f t="shared" si="0"/>
         <v>0.99236356863475517</v>
       </c>
-      <c r="T2">
+      <c r="T3" s="2">
         <f t="shared" si="0"/>
         <v>0.99062444719617893</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <f>(((B6*B7)-(B8*B9))/SQRT((B6+B8)*(B6+B9)*(B7+B8)*(B7+B9)))</f>
+      <c r="B4" s="2">
+        <f>(((B7*B8)-(B9*B10))/SQRT((B7+B9)*(B7+B10)*(B8+B9)*(B8+B10)))</f>
         <v>0.84841143536053931</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:T3" si="1">(((C6*C7)-(C8*C9))/SQRT((C6+C8)*(C6+C9)*(C7+C8)*(C7+C9)))</f>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:T4" si="1">(((C7*C8)-(C9*C10))/SQRT((C7+C9)*(C7+C10)*(C8+C9)*(C8+C10)))</f>
         <v>0.92252772770940772</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="2">
         <f t="shared" si="1"/>
         <v>0.95153714082956919</v>
       </c>
-      <c r="E3">
+      <c r="E4" s="2">
         <f t="shared" si="1"/>
         <v>0.95677631585427558</v>
       </c>
-      <c r="F3">
+      <c r="F4" s="2">
         <f t="shared" si="1"/>
         <v>0.95590061452329111</v>
       </c>
-      <c r="G3">
+      <c r="G4" s="2">
         <f t="shared" si="1"/>
         <v>0.97319481693363152</v>
       </c>
-      <c r="H3">
+      <c r="H4" s="2">
         <f t="shared" si="1"/>
         <v>0.97086488894951273</v>
       </c>
-      <c r="I3">
+      <c r="I4" s="2">
         <f t="shared" si="1"/>
         <v>0.97085326946478701</v>
       </c>
-      <c r="J3">
+      <c r="J4" s="2">
         <f t="shared" si="1"/>
         <v>0.96780778416820989</v>
       </c>
-      <c r="K3">
+      <c r="K4" s="2">
         <f t="shared" si="1"/>
         <v>0.97333419851967218</v>
       </c>
-      <c r="L3">
+      <c r="L4" s="2">
         <f t="shared" si="1"/>
         <v>0.97374466447749763</v>
       </c>
-      <c r="M3">
+      <c r="M4" s="2">
         <f t="shared" si="1"/>
         <v>0.96736587685344033</v>
       </c>
-      <c r="N3">
+      <c r="N4" s="2">
         <f t="shared" si="1"/>
         <v>0.9664843886233756</v>
       </c>
-      <c r="O3">
+      <c r="O4" s="2">
         <f t="shared" si="1"/>
         <v>0.96853205829001632</v>
       </c>
-      <c r="P3">
+      <c r="P4" s="2">
         <f t="shared" si="1"/>
         <v>0.96418893983862941</v>
       </c>
-      <c r="Q3">
+      <c r="Q4" s="2">
         <f t="shared" si="1"/>
         <v>0.95415986743919334</v>
       </c>
-      <c r="R3">
+      <c r="R4" s="2">
         <f t="shared" si="1"/>
         <v>0.95897727114435716</v>
       </c>
-      <c r="S3">
+      <c r="S4" s="2">
         <f t="shared" si="1"/>
         <v>0.92880802676818264</v>
       </c>
-      <c r="T3">
+      <c r="T4" s="2">
         <f t="shared" si="1"/>
         <v>0.84684581407144544</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <f>(B6/(B6+B8))</f>
+      <c r="B5" s="2">
+        <f>(B7/(B7+B9))</f>
         <v>0.74371859296482412</v>
       </c>
-      <c r="C4">
-        <f t="shared" ref="C4:T4" si="2">(C6/(C6+C8))</f>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:T5" si="2">(C7/(C7+C9))</f>
         <v>0.88059701492537312</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="2">
         <f t="shared" si="2"/>
         <v>0.92371134020618562</v>
       </c>
-      <c r="E4">
+      <c r="E5" s="2">
         <f t="shared" si="2"/>
         <v>0.93858267716535437</v>
       </c>
-      <c r="F4">
+      <c r="F5" s="2">
         <f t="shared" si="2"/>
         <v>0.94409148665819564</v>
       </c>
-      <c r="G4">
+      <c r="G5" s="2">
         <f t="shared" si="2"/>
         <v>0.97374179431072205</v>
       </c>
-      <c r="H4">
+      <c r="H5" s="2">
         <f t="shared" si="2"/>
         <v>0.97373358348968109</v>
       </c>
-      <c r="I4">
+      <c r="I5" s="2">
         <f t="shared" si="2"/>
         <v>0.98089700996677742</v>
       </c>
-      <c r="J4">
+      <c r="J5" s="2">
         <f t="shared" si="2"/>
         <v>0.97518248175182487</v>
       </c>
-      <c r="K4">
+      <c r="K5" s="2">
         <f t="shared" si="2"/>
         <v>0.98601864181091881</v>
       </c>
-      <c r="L4">
+      <c r="L5" s="2">
         <f t="shared" si="2"/>
         <v>0.98907103825136611</v>
       </c>
-      <c r="M4">
+      <c r="M5" s="2">
         <f t="shared" si="2"/>
         <v>0.9872151195108394</v>
       </c>
-      <c r="N4">
+      <c r="N5" s="2">
         <f t="shared" si="2"/>
         <v>0.99224405377456049</v>
       </c>
-      <c r="O4">
+      <c r="O5" s="2">
         <f t="shared" si="2"/>
         <v>0.99471661863592697</v>
       </c>
-      <c r="P4">
+      <c r="P5" s="2">
         <f t="shared" si="2"/>
         <v>0.9964044943820225</v>
       </c>
-      <c r="Q4">
+      <c r="Q5" s="2">
         <f t="shared" si="2"/>
         <v>0.99578947368421056</v>
       </c>
-      <c r="R4">
+      <c r="R5" s="2">
         <f t="shared" si="2"/>
         <v>0.9968429360694554</v>
       </c>
-      <c r="S4">
+      <c r="S5" s="2">
         <f t="shared" si="2"/>
         <v>0.9981266391907081</v>
       </c>
-      <c r="T4">
+      <c r="T5" s="2">
         <f t="shared" si="2"/>
         <v>0.99892971815911524</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <f>(B6/(B6+B9))</f>
+      <c r="B6" s="2">
+        <f>(B7/(B7+B10))</f>
         <v>0.98666666666666669</v>
       </c>
-      <c r="C5">
-        <f t="shared" ref="C5:T5" si="3">(C6/(C6+C9))</f>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:T6" si="3">(C7/(C7+C10))</f>
         <v>0.98333333333333328</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="2">
         <f t="shared" si="3"/>
         <v>0.99555555555555553</v>
       </c>
-      <c r="E5">
+      <c r="E6" s="2">
         <f t="shared" si="3"/>
         <v>0.99333333333333329</v>
       </c>
-      <c r="F5">
+      <c r="F6" s="2">
         <f t="shared" si="3"/>
         <v>0.9906666666666667</v>
       </c>
-      <c r="G5">
+      <c r="G6" s="2">
         <f t="shared" si="3"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="H5">
+      <c r="H6" s="2">
         <f t="shared" si="3"/>
         <v>0.98857142857142855</v>
       </c>
-      <c r="I5">
+      <c r="I6" s="2">
         <f t="shared" si="3"/>
         <v>0.98416666666666663</v>
       </c>
-      <c r="J5">
+      <c r="J6" s="2">
         <f t="shared" si="3"/>
         <v>0.98962962962962964</v>
       </c>
-      <c r="K5">
+      <c r="K6" s="2">
         <f t="shared" si="3"/>
         <v>0.98733333333333329</v>
       </c>
-      <c r="L5">
+      <c r="L6" s="2">
         <f t="shared" si="3"/>
         <v>0.9872727272727273</v>
       </c>
-      <c r="M5">
+      <c r="M6" s="2">
         <f t="shared" si="3"/>
         <v>0.98666666666666669</v>
       </c>
-      <c r="N5">
+      <c r="N6" s="2">
         <f t="shared" si="3"/>
         <v>0.98410256410256414</v>
       </c>
-      <c r="O5">
+      <c r="O6" s="2">
         <f t="shared" si="3"/>
         <v>0.98619047619047617</v>
       </c>
-      <c r="P5">
+      <c r="P6" s="2">
         <f t="shared" si="3"/>
         <v>0.98533333333333328</v>
       </c>
-      <c r="Q5">
+      <c r="Q6" s="2">
         <f t="shared" si="3"/>
         <v>0.98541666666666672</v>
       </c>
-      <c r="R5">
+      <c r="R6" s="2">
         <f t="shared" si="3"/>
         <v>0.99058823529411766</v>
       </c>
-      <c r="S5">
+      <c r="S6" s="2">
         <f t="shared" si="3"/>
         <v>0.98666666666666669</v>
       </c>
-      <c r="T5">
+      <c r="T6" s="2">
         <f t="shared" si="3"/>
         <v>0.98245614035087714</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="2">
         <v>148</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="2">
         <v>295</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="2">
         <v>448</v>
       </c>
-      <c r="E6">
+      <c r="E7" s="2">
         <v>596</v>
       </c>
-      <c r="F6">
+      <c r="F7" s="2">
         <v>743</v>
       </c>
-      <c r="G6">
+      <c r="G7" s="2">
         <v>890</v>
       </c>
-      <c r="H6">
+      <c r="H7" s="2">
         <v>1038</v>
       </c>
-      <c r="I6">
+      <c r="I7" s="2">
         <v>1181</v>
       </c>
-      <c r="J6">
+      <c r="J7" s="2">
         <v>1336</v>
       </c>
-      <c r="K6">
+      <c r="K7" s="2">
         <v>1481</v>
       </c>
-      <c r="L6">
+      <c r="L7" s="2">
         <v>1629</v>
       </c>
-      <c r="M6">
+      <c r="M7" s="2">
         <v>1776</v>
       </c>
-      <c r="N6">
+      <c r="N7" s="2">
         <v>1919</v>
       </c>
-      <c r="O6">
+      <c r="O7" s="2">
         <v>2071</v>
       </c>
-      <c r="P6">
+      <c r="P7" s="2">
         <v>2217</v>
       </c>
-      <c r="Q6">
+      <c r="Q7" s="2">
         <v>2365</v>
       </c>
-      <c r="R6">
+      <c r="R7" s="2">
         <v>2526</v>
       </c>
-      <c r="S6">
+      <c r="S7" s="2">
         <v>2664</v>
       </c>
-      <c r="T6">
+      <c r="T7" s="2">
         <v>2800</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="2">
         <v>2799</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="2">
         <v>2660</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="2">
         <v>2513</v>
       </c>
-      <c r="E7">
+      <c r="E8" s="2">
         <v>2361</v>
       </c>
-      <c r="F7">
+      <c r="F8" s="2">
         <v>2206</v>
       </c>
-      <c r="G7">
+      <c r="G8" s="2">
         <v>2076</v>
       </c>
-      <c r="H7">
+      <c r="H8" s="2">
         <v>1922</v>
       </c>
-      <c r="I7">
+      <c r="I8" s="2">
         <v>1777</v>
       </c>
-      <c r="J7">
+      <c r="J8" s="2">
         <v>1616</v>
       </c>
-      <c r="K7">
+      <c r="K8" s="2">
         <v>1479</v>
       </c>
-      <c r="L7">
+      <c r="L8" s="2">
         <v>1332</v>
       </c>
-      <c r="M7">
+      <c r="M8" s="2">
         <v>1177</v>
       </c>
-      <c r="N7">
+      <c r="N8" s="2">
         <v>1035</v>
       </c>
-      <c r="O7">
+      <c r="O8" s="2">
         <v>889</v>
       </c>
-      <c r="P7">
+      <c r="P8" s="2">
         <v>742</v>
       </c>
-      <c r="Q7">
+      <c r="Q8" s="2">
         <v>590</v>
       </c>
-      <c r="R7">
+      <c r="R8" s="2">
         <v>442</v>
       </c>
-      <c r="S7">
+      <c r="S8" s="2">
         <v>295</v>
       </c>
-      <c r="T7">
+      <c r="T8" s="2">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="2">
         <v>51</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="2">
         <v>40</v>
       </c>
-      <c r="D8">
+      <c r="D9" s="2">
         <v>37</v>
       </c>
-      <c r="E8">
+      <c r="E9" s="2">
         <v>39</v>
       </c>
-      <c r="F8">
+      <c r="F9" s="2">
         <v>44</v>
       </c>
-      <c r="G8">
+      <c r="G9" s="2">
         <v>24</v>
       </c>
-      <c r="H8">
+      <c r="H9" s="2">
         <v>28</v>
       </c>
-      <c r="I8">
+      <c r="I9" s="2">
         <v>23</v>
       </c>
-      <c r="J8">
+      <c r="J9" s="2">
         <v>34</v>
       </c>
-      <c r="K8">
+      <c r="K9" s="2">
         <v>21</v>
       </c>
-      <c r="L8">
+      <c r="L9" s="2">
         <v>18</v>
       </c>
-      <c r="M8">
+      <c r="M9" s="2">
         <v>23</v>
       </c>
-      <c r="N8">
+      <c r="N9" s="2">
         <v>15</v>
       </c>
-      <c r="O8">
+      <c r="O9" s="2">
         <v>11</v>
       </c>
-      <c r="P8">
+      <c r="P9" s="2">
         <v>8</v>
       </c>
-      <c r="Q8">
+      <c r="Q9" s="2">
         <v>10</v>
       </c>
-      <c r="R8">
+      <c r="R9" s="2">
         <v>8</v>
       </c>
-      <c r="S8">
+      <c r="S9" s="2">
         <v>5</v>
       </c>
-      <c r="T8">
+      <c r="T9" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D9">
+      <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="E10" s="2">
         <v>4</v>
       </c>
-      <c r="F9">
+      <c r="F10" s="2">
         <v>7</v>
       </c>
-      <c r="G9">
+      <c r="G10" s="2">
         <v>10</v>
       </c>
-      <c r="H9">
+      <c r="H10" s="2">
         <v>12</v>
       </c>
-      <c r="I9">
+      <c r="I10" s="2">
         <v>19</v>
       </c>
-      <c r="J9">
+      <c r="J10" s="2">
         <v>14</v>
       </c>
-      <c r="K9">
+      <c r="K10" s="2">
         <v>19</v>
       </c>
-      <c r="L9">
+      <c r="L10" s="2">
         <v>21</v>
       </c>
-      <c r="M9">
+      <c r="M10" s="2">
         <v>24</v>
       </c>
-      <c r="N9">
+      <c r="N10" s="2">
         <v>31</v>
       </c>
-      <c r="O9">
+      <c r="O10" s="2">
         <v>29</v>
       </c>
-      <c r="P9">
+      <c r="P10" s="2">
         <v>33</v>
       </c>
-      <c r="Q9">
+      <c r="Q10" s="2">
         <v>35</v>
       </c>
-      <c r="R9">
+      <c r="R10" s="2">
         <v>24</v>
       </c>
-      <c r="S9">
+      <c r="S10" s="2">
         <v>36</v>
       </c>
-      <c r="T9">
+      <c r="T10" s="2">
         <v>50</v>
       </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10697,1298 +11912,1312 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBC7FF2-51B9-40D6-A248-856E59F89C25}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+      <selection activeCell="B2" sqref="B2:T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2">
+    </row>
+    <row r="2" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7">
         <v>0.05</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C2" s="7">
         <v>0.1</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D2" s="7">
         <v>0.15</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E2" s="7">
         <v>0.2</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F2" s="7">
         <v>0.25</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G2" s="7">
         <v>0.3</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H2" s="7">
         <v>0.35</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I2" s="7">
         <v>0.4</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J2" s="7">
         <v>0.45</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K2" s="7">
         <v>0.5</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L2" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M2" s="7">
         <v>0.6</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N2" s="7">
         <v>0.65</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O2" s="7">
         <v>0.7</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P2" s="7">
         <v>0.75</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q2" s="7">
         <v>0.8</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R2" s="7">
         <v>0.85</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S2" s="7">
         <v>0.9</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T2" s="7">
         <v>0.95</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <f>(2*(B4*B5)/(B4+B5))</f>
+      <c r="B3" s="4">
+        <f>(2*(B5*B6)/(B5+B6))</f>
         <v>0.8595988538681949</v>
       </c>
-      <c r="C2">
-        <f t="shared" ref="C2:T2" si="0">(2*(C4*C5)/(C4+C5))</f>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:T3" si="0">(2*(C5*C6)/(C5+C6))</f>
         <v>0.89497716894977164</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="4">
         <f t="shared" si="0"/>
         <v>0.94522019334049401</v>
       </c>
-      <c r="E2">
+      <c r="E3" s="4">
         <f t="shared" si="0"/>
         <v>0.9626016260162602</v>
       </c>
-      <c r="F2">
+      <c r="F3" s="4">
         <f t="shared" si="0"/>
         <v>0.95436766623207303</v>
       </c>
-      <c r="G2">
+      <c r="G3" s="4">
         <f t="shared" si="0"/>
         <v>0.96992892290869315</v>
       </c>
-      <c r="H2">
+      <c r="H3" s="4">
         <f t="shared" si="0"/>
         <v>0.96668230877522299</v>
       </c>
-      <c r="I2">
+      <c r="I3" s="4">
         <f t="shared" si="0"/>
         <v>0.9739130434782608</v>
       </c>
-      <c r="J2">
+      <c r="J3" s="4">
         <f t="shared" si="0"/>
         <v>0.97682971680764985</v>
       </c>
-      <c r="K2">
+      <c r="K3" s="4">
         <f t="shared" si="0"/>
         <v>0.98</v>
       </c>
-      <c r="L2">
+      <c r="L3" s="4">
         <f t="shared" si="0"/>
         <v>0.97986577181208057</v>
       </c>
-      <c r="M2">
+      <c r="M3" s="4">
         <f t="shared" si="0"/>
         <v>0.982739420935412</v>
       </c>
-      <c r="N2">
+      <c r="N3" s="4">
         <f t="shared" si="0"/>
         <v>0.98687258687258683</v>
       </c>
-      <c r="O2">
+      <c r="O3" s="4">
         <f t="shared" si="0"/>
         <v>0.98732966770260577</v>
       </c>
-      <c r="P2">
+      <c r="P3" s="4">
         <f t="shared" si="0"/>
         <v>0.98297491039426532</v>
       </c>
-      <c r="Q2">
+      <c r="Q3" s="4">
         <f t="shared" si="0"/>
         <v>0.98593913955928647</v>
       </c>
-      <c r="R2">
+      <c r="R3" s="4">
         <f t="shared" si="0"/>
         <v>0.99052506908803795</v>
       </c>
-      <c r="S2">
+      <c r="S3" s="4">
         <f t="shared" si="0"/>
         <v>0.99029126213592233</v>
       </c>
-      <c r="T2">
+      <c r="T3" s="4">
         <f t="shared" si="0"/>
         <v>0.98973814578910113</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <f>(((B6*B7)-(B8*B9))/SQRT((B6+B8)*(B6+B9)*(B7+B8)*(B7+B9)))</f>
+      <c r="B4" s="4">
+        <f>(((B7*B8)-(B9*B10))/SQRT((B7+B9)*(B7+B10)*(B8+B9)*(B8+B10)))</f>
         <v>0.86070279987137654</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:T3" si="1">(((C6*C7)-(C8*C9))/SQRT((C6+C8)*(C6+C9)*(C7+C8)*(C7+C9)))</f>
+      <c r="C4" s="4">
+        <f t="shared" ref="C4:T4" si="1">(((C7*C8)-(C9*C10))/SQRT((C7+C9)*(C7+C10)*(C8+C9)*(C8+C10)))</f>
         <v>0.88638104828353936</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="4">
         <f t="shared" si="1"/>
         <v>0.93589913537839564</v>
       </c>
-      <c r="E3">
+      <c r="E4" s="4">
         <f t="shared" si="1"/>
         <v>0.9534138963389589</v>
       </c>
-      <c r="F3">
+      <c r="F4" s="4">
         <f t="shared" si="1"/>
         <v>0.9391203344767729</v>
       </c>
-      <c r="G3">
+      <c r="G4" s="4">
         <f t="shared" si="1"/>
         <v>0.95699630874659514</v>
       </c>
-      <c r="H3">
+      <c r="H4" s="4">
         <f t="shared" si="1"/>
         <v>0.94857869182566279</v>
       </c>
-      <c r="I3">
+      <c r="I4" s="4">
         <f t="shared" si="1"/>
         <v>0.95639262983320861</v>
       </c>
-      <c r="J3">
+      <c r="J4" s="4">
         <f t="shared" si="1"/>
         <v>0.95770816080096932</v>
       </c>
-      <c r="K3">
+      <c r="K4" s="4">
         <f t="shared" si="1"/>
         <v>0.96</v>
       </c>
-      <c r="L3">
+      <c r="L4" s="4">
         <f t="shared" si="1"/>
         <v>0.95572587818279819</v>
       </c>
-      <c r="M3">
+      <c r="M4" s="4">
         <f t="shared" si="1"/>
         <v>0.95700696682953823</v>
       </c>
-      <c r="N3">
+      <c r="N4" s="4">
         <f t="shared" si="1"/>
         <v>0.96281788590770589</v>
       </c>
-      <c r="O3">
+      <c r="O4" s="4">
         <f t="shared" si="1"/>
         <v>0.95824858652182476</v>
       </c>
-      <c r="P3">
+      <c r="P4" s="4">
         <f t="shared" si="1"/>
         <v>0.93397167728296826</v>
       </c>
-      <c r="Q3">
+      <c r="Q4" s="4">
         <f t="shared" si="1"/>
         <v>0.9322958983910532</v>
       </c>
-      <c r="R3">
+      <c r="R4" s="4">
         <f t="shared" si="1"/>
         <v>0.94002171557948022</v>
       </c>
-      <c r="S3">
+      <c r="S4" s="4">
         <f t="shared" si="1"/>
         <v>0.91226965335140331</v>
       </c>
-      <c r="T3">
+      <c r="T4" s="4">
         <f t="shared" si="1"/>
         <v>0.83222715727158258</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <f>(B6/(B6+B8))</f>
+      <c r="B5" s="4">
+        <f>(B7/(B7+B9))</f>
         <v>0.75376884422110557</v>
       </c>
-      <c r="C4">
-        <f t="shared" ref="C4:T4" si="2">(C6/(C6+C8))</f>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5:T5" si="2">(C7/(C7+C9))</f>
         <v>0.82352941176470584</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="4">
         <f t="shared" si="2"/>
         <v>0.91476091476091481</v>
       </c>
-      <c r="E4">
+      <c r="E5" s="4">
         <f t="shared" si="2"/>
         <v>0.93968253968253967</v>
       </c>
-      <c r="F4">
+      <c r="F5" s="4">
         <f t="shared" si="2"/>
         <v>0.93367346938775508</v>
       </c>
-      <c r="G4">
+      <c r="G5" s="4">
         <f t="shared" si="2"/>
         <v>0.9547900968783638</v>
       </c>
-      <c r="H4">
+      <c r="H5" s="4">
         <f t="shared" si="2"/>
         <v>0.95282146160962067</v>
       </c>
-      <c r="I4">
+      <c r="I5" s="4">
         <f t="shared" si="2"/>
         <v>0.96790123456790123</v>
       </c>
-      <c r="J4">
+      <c r="J5" s="4">
         <f t="shared" si="2"/>
         <v>0.97005113221329442</v>
       </c>
-      <c r="K4">
+      <c r="K5" s="4">
         <f t="shared" si="2"/>
         <v>0.98</v>
       </c>
-      <c r="L4">
+      <c r="L5" s="4">
         <f t="shared" si="2"/>
         <v>0.98648648648648651</v>
       </c>
-      <c r="M4">
+      <c r="M5" s="4">
         <f t="shared" si="2"/>
         <v>0.9849330357142857</v>
       </c>
-      <c r="N4">
+      <c r="N5" s="4">
         <f t="shared" si="2"/>
         <v>0.99069767441860468</v>
       </c>
-      <c r="O4">
+      <c r="O5" s="4">
         <f t="shared" si="2"/>
         <v>0.99135861737878062</v>
       </c>
-      <c r="P4">
+      <c r="P5" s="4">
         <f t="shared" si="2"/>
         <v>0.99096657633243002</v>
       </c>
-      <c r="Q4">
+      <c r="Q5" s="4">
         <f t="shared" si="2"/>
         <v>0.99323467230443974</v>
       </c>
-      <c r="R4">
+      <c r="R5" s="4">
         <f t="shared" si="2"/>
         <v>0.99721780604133547</v>
       </c>
-      <c r="S4">
+      <c r="S5" s="4">
         <f t="shared" si="2"/>
         <v>0.99849397590361444</v>
       </c>
-      <c r="T4">
+      <c r="T5" s="4">
         <f t="shared" si="2"/>
         <v>0.99821556031406133</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <f>(B6/(B6+B9))</f>
+      <c r="B6" s="4">
+        <f>(B7/(B7+B10))</f>
         <v>1</v>
       </c>
-      <c r="C5">
-        <f t="shared" ref="C5:T5" si="3">(C6/(C6+C9))</f>
+      <c r="C6" s="4">
+        <f t="shared" ref="C6:T6" si="3">(C7/(C7+C10))</f>
         <v>0.98</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="4">
         <f t="shared" si="3"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="E5">
+      <c r="E6" s="4">
         <f t="shared" si="3"/>
         <v>0.98666666666666669</v>
       </c>
-      <c r="F5">
+      <c r="F6" s="4">
         <f t="shared" si="3"/>
         <v>0.97599999999999998</v>
       </c>
-      <c r="G5">
+      <c r="G6" s="4">
         <f t="shared" si="3"/>
         <v>0.98555555555555552</v>
       </c>
-      <c r="H5">
+      <c r="H6" s="4">
         <f t="shared" si="3"/>
         <v>0.98095238095238091</v>
       </c>
-      <c r="I5">
+      <c r="I6" s="4">
         <f t="shared" si="3"/>
         <v>0.98</v>
       </c>
-      <c r="J5">
+      <c r="J6" s="4">
         <f t="shared" si="3"/>
         <v>0.98370370370370375</v>
       </c>
-      <c r="K5">
+      <c r="K6" s="4">
         <f t="shared" si="3"/>
         <v>0.98</v>
       </c>
-      <c r="L5">
+      <c r="L6" s="4">
         <f t="shared" si="3"/>
         <v>0.97333333333333338</v>
       </c>
-      <c r="M5">
+      <c r="M6" s="4">
         <f t="shared" si="3"/>
         <v>0.98055555555555551</v>
       </c>
-      <c r="N5">
+      <c r="N6" s="4">
         <f t="shared" si="3"/>
         <v>0.98307692307692307</v>
       </c>
-      <c r="O5">
+      <c r="O6" s="4">
         <f t="shared" si="3"/>
         <v>0.98333333333333328</v>
       </c>
-      <c r="P5">
+      <c r="P6" s="4">
         <f t="shared" si="3"/>
         <v>0.97511111111111115</v>
       </c>
-      <c r="Q5">
+      <c r="Q6" s="4">
         <f t="shared" si="3"/>
         <v>0.97875000000000001</v>
       </c>
-      <c r="R5">
+      <c r="R6" s="4">
         <f t="shared" si="3"/>
         <v>0.98392156862745095</v>
       </c>
-      <c r="S5">
+      <c r="S6" s="4">
         <f t="shared" si="3"/>
         <v>0.98222222222222222</v>
       </c>
-      <c r="T5">
+      <c r="T6" s="4">
         <f t="shared" si="3"/>
         <v>0.98140350877192983</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="4">
         <v>150</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="4">
         <v>294</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="4">
         <v>440</v>
       </c>
-      <c r="E6">
+      <c r="E7" s="4">
         <v>592</v>
       </c>
-      <c r="F6">
+      <c r="F7" s="4">
         <v>732</v>
       </c>
-      <c r="G6">
+      <c r="G7" s="4">
         <v>887</v>
       </c>
-      <c r="H6">
+      <c r="H7" s="4">
         <v>1030</v>
       </c>
-      <c r="I6">
+      <c r="I7" s="4">
         <v>1176</v>
       </c>
-      <c r="J6">
+      <c r="J7" s="4">
         <v>1328</v>
       </c>
-      <c r="K6">
+      <c r="K7" s="4">
         <v>1470</v>
       </c>
-      <c r="L6">
+      <c r="L7" s="4">
         <v>1606</v>
       </c>
-      <c r="M6">
+      <c r="M7" s="4">
         <v>1765</v>
       </c>
-      <c r="N6">
+      <c r="N7" s="4">
         <v>1917</v>
       </c>
-      <c r="O6">
+      <c r="O7" s="4">
         <v>2065</v>
       </c>
-      <c r="P6">
+      <c r="P7" s="4">
         <v>2194</v>
       </c>
-      <c r="Q6">
+      <c r="Q7" s="4">
         <v>2349</v>
       </c>
-      <c r="R6">
+      <c r="R7" s="4">
         <v>2509</v>
       </c>
-      <c r="S6">
+      <c r="S7" s="4">
         <v>2652</v>
       </c>
-      <c r="T6">
+      <c r="T7" s="4">
         <v>2797</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="4">
         <v>2801</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="4">
         <v>2637</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="4">
         <v>2509</v>
       </c>
-      <c r="E7">
+      <c r="E8" s="4">
         <v>2362</v>
       </c>
-      <c r="F7">
+      <c r="F8" s="4">
         <v>2198</v>
       </c>
-      <c r="G7">
+      <c r="G8" s="4">
         <v>2058</v>
       </c>
-      <c r="H7">
+      <c r="H8" s="4">
         <v>1899</v>
       </c>
-      <c r="I7">
+      <c r="I8" s="4">
         <v>1761</v>
       </c>
-      <c r="J7">
+      <c r="J8" s="4">
         <v>1609</v>
       </c>
-      <c r="K7">
+      <c r="K8" s="4">
         <v>1470</v>
       </c>
-      <c r="L7">
+      <c r="L8" s="4">
         <v>1328</v>
       </c>
-      <c r="M7">
+      <c r="M8" s="4">
         <v>1173</v>
       </c>
-      <c r="N7">
+      <c r="N8" s="4">
         <v>1032</v>
       </c>
-      <c r="O7">
+      <c r="O8" s="4">
         <v>882</v>
       </c>
-      <c r="P7">
+      <c r="P8" s="4">
         <v>730</v>
       </c>
-      <c r="Q7">
+      <c r="Q8" s="4">
         <v>584</v>
       </c>
-      <c r="R7">
+      <c r="R8" s="4">
         <v>443</v>
       </c>
-      <c r="S7">
+      <c r="S8" s="4">
         <v>296</v>
       </c>
-      <c r="T7">
+      <c r="T8" s="4">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="4">
         <v>49</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="4">
         <v>63</v>
       </c>
-      <c r="D8">
+      <c r="D9" s="4">
         <v>41</v>
       </c>
-      <c r="E8">
+      <c r="E9" s="4">
         <v>38</v>
       </c>
-      <c r="F8">
+      <c r="F9" s="4">
         <v>52</v>
       </c>
-      <c r="G8">
+      <c r="G9" s="4">
         <v>42</v>
       </c>
-      <c r="H8">
+      <c r="H9" s="4">
         <v>51</v>
       </c>
-      <c r="I8">
+      <c r="I9" s="4">
         <v>39</v>
       </c>
-      <c r="J8">
+      <c r="J9" s="4">
         <v>41</v>
       </c>
-      <c r="K8">
+      <c r="K9" s="4">
         <v>30</v>
       </c>
-      <c r="L8">
+      <c r="L9" s="4">
         <v>22</v>
       </c>
-      <c r="M8">
+      <c r="M9" s="4">
         <v>27</v>
       </c>
-      <c r="N8">
+      <c r="N9" s="4">
         <v>18</v>
       </c>
-      <c r="O8">
+      <c r="O9" s="4">
         <v>18</v>
       </c>
-      <c r="P8">
+      <c r="P9" s="4">
         <v>20</v>
       </c>
-      <c r="Q8">
+      <c r="Q9" s="4">
         <v>16</v>
       </c>
-      <c r="R8">
+      <c r="R9" s="4">
         <v>7</v>
       </c>
-      <c r="S8">
+      <c r="S9" s="4">
         <v>4</v>
       </c>
-      <c r="T8">
+      <c r="T9" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10" s="4">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="4">
         <v>6</v>
       </c>
-      <c r="D9">
+      <c r="D10" s="4">
         <v>10</v>
       </c>
-      <c r="E9">
+      <c r="E10" s="4">
         <v>8</v>
       </c>
-      <c r="F9">
+      <c r="F10" s="4">
         <v>18</v>
       </c>
-      <c r="G9">
+      <c r="G10" s="4">
         <v>13</v>
       </c>
-      <c r="H9">
+      <c r="H10" s="4">
         <v>20</v>
       </c>
-      <c r="I9">
+      <c r="I10" s="4">
         <v>24</v>
       </c>
-      <c r="J9">
+      <c r="J10" s="4">
         <v>22</v>
       </c>
-      <c r="K9">
+      <c r="K10" s="4">
         <v>30</v>
       </c>
-      <c r="L9">
+      <c r="L10" s="4">
         <v>44</v>
       </c>
-      <c r="M9">
+      <c r="M10" s="4">
         <v>35</v>
       </c>
-      <c r="N9">
+      <c r="N10" s="4">
         <v>33</v>
       </c>
-      <c r="O9">
+      <c r="O10" s="4">
         <v>35</v>
       </c>
-      <c r="P9">
+      <c r="P10" s="4">
         <v>56</v>
       </c>
-      <c r="Q9">
+      <c r="Q10" s="4">
         <v>51</v>
       </c>
-      <c r="R9">
+      <c r="R10" s="4">
         <v>41</v>
       </c>
-      <c r="S9">
+      <c r="S10" s="4">
         <v>48</v>
       </c>
-      <c r="T9">
+      <c r="T10" s="4">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0111689-8D6F-4FB5-9C3E-C2EDB14D26BA}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7">
         <v>0.05</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C2" s="7">
         <v>0.1</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D2" s="7">
         <v>0.15</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E2" s="7">
         <v>0.2</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F2" s="7">
         <v>0.25</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G2" s="7">
         <v>0.3</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H2" s="7">
         <v>0.35</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I2" s="7">
         <v>0.4</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J2" s="7">
         <v>0.45</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K2" s="7">
         <v>0.5</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L2" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M2" s="7">
         <v>0.6</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N2" s="7">
         <v>0.65</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O2" s="7">
         <v>0.7</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P2" s="7">
         <v>0.75</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q2" s="7">
         <v>0.8</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R2" s="7">
         <v>0.85</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S2" s="7">
         <v>0.9</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T2" s="7">
         <v>0.95</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <f>(2*(B4*B5)/(B4+B5))</f>
+      <c r="B3" s="2">
+        <f>(2*(B5*B6)/(B5+B6))</f>
         <v>0.70754716981132082</v>
       </c>
-      <c r="C2">
-        <f t="shared" ref="C2:T2" si="0">(2*(C4*C5)/(C4+C5))</f>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:T3" si="0">(2*(C5*C6)/(C5+C6))</f>
         <v>0.84779516358463725</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="2">
         <f t="shared" si="0"/>
         <v>0.87585532746823069</v>
       </c>
-      <c r="E2">
+      <c r="E3" s="2">
         <f t="shared" si="0"/>
         <v>0.89457831325301207</v>
       </c>
-      <c r="F2">
+      <c r="F3" s="2">
         <f t="shared" si="0"/>
         <v>0.93258426966292129</v>
       </c>
-      <c r="G2">
+      <c r="G3" s="2">
         <f t="shared" si="0"/>
         <v>0.94915254237288138</v>
       </c>
-      <c r="H2">
+      <c r="H3" s="2">
         <f t="shared" si="0"/>
         <v>0.94684234438891413</v>
       </c>
-      <c r="I2">
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>0.96215780998389699</v>
       </c>
-      <c r="J2">
+      <c r="J3" s="2">
         <f t="shared" si="0"/>
         <v>0.96897546897546893</v>
       </c>
-      <c r="K2">
+      <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>0.97228562112813821</v>
       </c>
-      <c r="L2">
+      <c r="L3" s="2">
         <f t="shared" si="0"/>
         <v>0.9833134684147794</v>
       </c>
-      <c r="M2">
+      <c r="M3" s="2">
         <f t="shared" si="0"/>
         <v>0.9838400438236099</v>
       </c>
-      <c r="N2">
+      <c r="N3" s="2">
         <f t="shared" si="0"/>
         <v>0.98831894362620609</v>
       </c>
-      <c r="O2">
+      <c r="O3" s="2">
         <f t="shared" si="0"/>
         <v>0.98698224852071004</v>
       </c>
-      <c r="P2">
+      <c r="P3" s="2">
         <f t="shared" si="0"/>
         <v>0.98782377684303735</v>
       </c>
-      <c r="Q2">
+      <c r="Q3" s="2">
         <f t="shared" si="0"/>
         <v>0.99251559251559252</v>
       </c>
-      <c r="R2">
+      <c r="R3" s="2">
         <f t="shared" si="0"/>
         <v>0.99178082191780825</v>
       </c>
-      <c r="S2">
+      <c r="S3" s="2">
         <f t="shared" si="0"/>
         <v>0.9951887490747594</v>
       </c>
-      <c r="T2">
+      <c r="T3" s="2">
         <f t="shared" si="0"/>
         <v>0.99613084769609572</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <f>(((B6*B7)-(B8*B9))/SQRT((B6+B8)*(B6+B9)*(B7+B8)*(B7+B9)))</f>
+      <c r="B4" s="2">
+        <f>(((B7*B8)-(B9*B10))/SQRT((B7+B9)*(B7+B10)*(B8+B9)*(B8+B10)))</f>
         <v>0.72362047007388486</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:T3" si="1">(((C6*C7)-(C8*C9))/SQRT((C6+C8)*(C6+C9)*(C7+C8)*(C7+C9)))</f>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:T4" si="1">(((C7*C8)-(C9*C10))/SQRT((C7+C9)*(C7+C10)*(C8+C9)*(C8+C10)))</f>
         <v>0.83966232264323926</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="2">
         <f t="shared" si="1"/>
         <v>0.85980756173861761</v>
       </c>
-      <c r="E3">
+      <c r="E4" s="2">
         <f t="shared" si="1"/>
         <v>0.87163720500950781</v>
       </c>
-      <c r="F3">
+      <c r="F4" s="2">
         <f t="shared" si="1"/>
         <v>0.9115986746508864</v>
       </c>
-      <c r="G3">
+      <c r="G4" s="2">
         <f t="shared" si="1"/>
         <v>0.92802465921133281</v>
       </c>
-      <c r="H3">
+      <c r="H4" s="2">
         <f t="shared" si="1"/>
         <v>0.91855671286351093</v>
       </c>
-      <c r="I3">
+      <c r="I4" s="2">
         <f t="shared" si="1"/>
         <v>0.93703401150758181</v>
       </c>
-      <c r="J3">
+      <c r="J4" s="2">
         <f t="shared" si="1"/>
         <v>0.94346587986488772</v>
       </c>
-      <c r="K3">
+      <c r="K4" s="2">
         <f t="shared" si="1"/>
         <v>0.94427577117659334</v>
       </c>
-      <c r="L3">
+      <c r="L4" s="2">
         <f t="shared" si="1"/>
         <v>0.96283687046657518</v>
       </c>
-      <c r="M3">
+      <c r="M4" s="2">
         <f t="shared" si="1"/>
         <v>0.959345969997351</v>
       </c>
-      <c r="N3">
+      <c r="N4" s="2">
         <f t="shared" si="1"/>
         <v>0.96639743697075853</v>
       </c>
-      <c r="O3">
+      <c r="O4" s="2">
         <f t="shared" si="1"/>
         <v>0.95619125737912669</v>
       </c>
-      <c r="P3">
+      <c r="P4" s="2">
         <f t="shared" si="1"/>
         <v>0.95084914305249357</v>
       </c>
-      <c r="Q3">
+      <c r="Q4" s="2">
         <f t="shared" si="1"/>
         <v>0.96231702021805898</v>
       </c>
-      <c r="R3">
+      <c r="R4" s="2">
         <f t="shared" si="1"/>
         <v>0.94467324043517598</v>
       </c>
-      <c r="S3">
+      <c r="S4" s="2">
         <f t="shared" si="1"/>
         <v>0.95159124792216165</v>
       </c>
-      <c r="T3">
+      <c r="T4" s="2">
         <f t="shared" si="1"/>
         <v>0.92710169583564639</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <f>(B6/(B6+B8))</f>
+      <c r="B5" s="2">
+        <f>(B7/(B7+B9))</f>
         <v>0.54744525547445255</v>
       </c>
-      <c r="C4">
-        <f t="shared" ref="C4:T4" si="2">(C6/(C6+C8))</f>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:T5" si="2">(C7/(C7+C9))</f>
         <v>0.73945409429280395</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="2">
         <f t="shared" si="2"/>
         <v>0.78184991273996507</v>
       </c>
-      <c r="E4">
+      <c r="E5" s="2">
         <f t="shared" si="2"/>
         <v>0.81593406593406592</v>
       </c>
-      <c r="F4">
+      <c r="F5" s="2">
         <f t="shared" si="2"/>
         <v>0.87676056338028174</v>
       </c>
-      <c r="G4">
+      <c r="G5" s="2">
         <f t="shared" si="2"/>
         <v>0.90688259109311742</v>
       </c>
-      <c r="H4">
+      <c r="H5" s="2">
         <f t="shared" si="2"/>
         <v>0.90529973935708075</v>
       </c>
-      <c r="I4">
+      <c r="I5" s="2">
         <f t="shared" si="2"/>
         <v>0.93068535825545173</v>
       </c>
-      <c r="J4">
+      <c r="J5" s="2">
         <f t="shared" si="2"/>
         <v>0.94444444444444442</v>
       </c>
-      <c r="K4">
+      <c r="K5" s="2">
         <f t="shared" si="2"/>
         <v>0.95149968091895343</v>
       </c>
-      <c r="L4">
+      <c r="L5" s="2">
         <f t="shared" si="2"/>
         <v>0.96717467760844078</v>
       </c>
-      <c r="M4">
+      <c r="M5" s="2">
         <f t="shared" si="2"/>
         <v>0.97028633171258782</v>
       </c>
-      <c r="N4">
+      <c r="N5" s="2">
         <f t="shared" si="2"/>
         <v>0.97887323943661975</v>
       </c>
-      <c r="O4">
+      <c r="O5" s="2">
         <f t="shared" si="2"/>
         <v>0.98117647058823532</v>
       </c>
-      <c r="P4">
+      <c r="P5" s="2">
         <f t="shared" si="2"/>
         <v>0.98411998235553599</v>
       </c>
-      <c r="Q4">
+      <c r="Q5" s="2">
         <f t="shared" si="2"/>
         <v>0.99045643153526974</v>
       </c>
-      <c r="R4">
+      <c r="R5" s="2">
         <f t="shared" si="2"/>
         <v>0.98984375000000002</v>
       </c>
-      <c r="S4">
+      <c r="S5" s="2">
         <f t="shared" si="2"/>
         <v>0.99445266272189348</v>
       </c>
-      <c r="T4">
+      <c r="T5" s="2">
         <f t="shared" si="2"/>
         <v>0.99858956276445698</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <f>(B6/(B6+B9))</f>
+      <c r="B6" s="2">
+        <f>(B7/(B7+B10))</f>
         <v>1</v>
       </c>
-      <c r="C5">
-        <f t="shared" ref="C5:T5" si="3">(C6/(C6+C9))</f>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:T6" si="3">(C7/(C7+C10))</f>
         <v>0.99333333333333329</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="2">
         <f t="shared" si="3"/>
         <v>0.99555555555555553</v>
       </c>
-      <c r="E5">
+      <c r="E6" s="2">
         <f t="shared" si="3"/>
         <v>0.99</v>
       </c>
-      <c r="F5">
+      <c r="F6" s="2">
         <f t="shared" si="3"/>
         <v>0.996</v>
       </c>
-      <c r="G5">
+      <c r="G6" s="2">
         <f t="shared" si="3"/>
         <v>0.99555555555555553</v>
       </c>
-      <c r="H5">
+      <c r="H6" s="2">
         <f t="shared" si="3"/>
         <v>0.99238095238095236</v>
       </c>
-      <c r="I5">
+      <c r="I6" s="2">
         <f t="shared" si="3"/>
         <v>0.99583333333333335</v>
       </c>
-      <c r="J5">
+      <c r="J6" s="2">
         <f t="shared" si="3"/>
         <v>0.99481481481481482</v>
       </c>
-      <c r="K5">
+      <c r="K6" s="2">
         <f t="shared" si="3"/>
         <v>0.99399999999999999</v>
       </c>
-      <c r="L5">
+      <c r="L6" s="2">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M5">
+      <c r="M6" s="2">
         <f t="shared" si="3"/>
         <v>0.99777777777777776</v>
       </c>
-      <c r="N5">
+      <c r="N6" s="2">
         <f t="shared" si="3"/>
         <v>0.99794871794871798</v>
       </c>
-      <c r="O5">
+      <c r="O6" s="2">
         <f t="shared" si="3"/>
         <v>0.99285714285714288</v>
       </c>
-      <c r="P5">
+      <c r="P6" s="2">
         <f t="shared" si="3"/>
         <v>0.99155555555555552</v>
       </c>
-      <c r="Q5">
+      <c r="Q6" s="2">
         <f t="shared" si="3"/>
         <v>0.99458333333333337</v>
       </c>
-      <c r="R5">
+      <c r="R6" s="2">
         <f t="shared" si="3"/>
         <v>0.99372549019607848</v>
       </c>
-      <c r="S5">
+      <c r="S6" s="2">
         <f t="shared" si="3"/>
         <v>0.99592592592592588</v>
       </c>
-      <c r="T5">
+      <c r="T6" s="2">
         <f t="shared" si="3"/>
         <v>0.99368421052631584</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="2">
         <v>150</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="2">
         <v>298</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="2">
         <v>448</v>
       </c>
-      <c r="E6">
+      <c r="E7" s="2">
         <v>594</v>
       </c>
-      <c r="F6">
+      <c r="F7" s="2">
         <v>747</v>
       </c>
-      <c r="G6">
+      <c r="G7" s="2">
         <v>896</v>
       </c>
-      <c r="H6">
+      <c r="H7" s="2">
         <v>1042</v>
       </c>
-      <c r="I6">
+      <c r="I7" s="2">
         <v>1195</v>
       </c>
-      <c r="J6">
+      <c r="J7" s="2">
         <v>1343</v>
       </c>
-      <c r="K6">
+      <c r="K7" s="2">
         <v>1491</v>
       </c>
-      <c r="L6">
+      <c r="L7" s="2">
         <v>1650</v>
       </c>
-      <c r="M6">
+      <c r="M7" s="2">
         <v>1796</v>
       </c>
-      <c r="N6">
+      <c r="N7" s="2">
         <v>1946</v>
       </c>
-      <c r="O6">
+      <c r="O7" s="2">
         <v>2085</v>
       </c>
-      <c r="P6">
+      <c r="P7" s="2">
         <v>2231</v>
       </c>
-      <c r="Q6">
+      <c r="Q7" s="2">
         <v>2387</v>
       </c>
-      <c r="R6">
+      <c r="R7" s="2">
         <v>2534</v>
       </c>
-      <c r="S6">
+      <c r="S7" s="2">
         <v>2689</v>
       </c>
-      <c r="T6">
+      <c r="T7" s="2">
         <v>2832</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="2">
         <v>2726</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="2">
         <v>2595</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="2">
         <v>2425</v>
       </c>
-      <c r="E7">
+      <c r="E8" s="2">
         <v>2266</v>
       </c>
-      <c r="F7">
+      <c r="F8" s="2">
         <v>2145</v>
       </c>
-      <c r="G7">
+      <c r="G8" s="2">
         <v>2008</v>
       </c>
-      <c r="H7">
+      <c r="H8" s="2">
         <v>1841</v>
       </c>
-      <c r="I7">
+      <c r="I8" s="2">
         <v>1711</v>
       </c>
-      <c r="J7">
+      <c r="J8" s="2">
         <v>1571</v>
       </c>
-      <c r="K7">
+      <c r="K8" s="2">
         <v>1424</v>
       </c>
-      <c r="L7">
+      <c r="L8" s="2">
         <v>1294</v>
       </c>
-      <c r="M7">
+      <c r="M8" s="2">
         <v>1145</v>
       </c>
-      <c r="N7">
+      <c r="N8" s="2">
         <v>1008</v>
       </c>
-      <c r="O7">
+      <c r="O8" s="2">
         <v>860</v>
       </c>
-      <c r="P7">
+      <c r="P8" s="2">
         <v>714</v>
       </c>
-      <c r="Q7">
+      <c r="Q8" s="2">
         <v>577</v>
       </c>
-      <c r="R7">
+      <c r="R8" s="2">
         <v>424</v>
       </c>
-      <c r="S7">
+      <c r="S8" s="2">
         <v>285</v>
       </c>
-      <c r="T7">
+      <c r="T8" s="2">
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="2">
         <v>124</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="2">
         <v>105</v>
       </c>
-      <c r="D8">
+      <c r="D9" s="2">
         <v>125</v>
       </c>
-      <c r="E8">
+      <c r="E9" s="2">
         <v>134</v>
       </c>
-      <c r="F8">
+      <c r="F9" s="2">
         <v>105</v>
       </c>
-      <c r="G8">
+      <c r="G9" s="2">
         <v>92</v>
       </c>
-      <c r="H8">
+      <c r="H9" s="2">
         <v>109</v>
       </c>
-      <c r="I8">
+      <c r="I9" s="2">
         <v>89</v>
       </c>
-      <c r="J8">
+      <c r="J9" s="2">
         <v>79</v>
       </c>
-      <c r="K8">
+      <c r="K9" s="2">
         <v>76</v>
       </c>
-      <c r="L8">
+      <c r="L9" s="2">
         <v>56</v>
       </c>
-      <c r="M8">
+      <c r="M9" s="2">
         <v>55</v>
       </c>
-      <c r="N8">
+      <c r="N9" s="2">
         <v>42</v>
       </c>
-      <c r="O8">
+      <c r="O9" s="2">
         <v>40</v>
       </c>
-      <c r="P8">
+      <c r="P9" s="2">
         <v>36</v>
       </c>
-      <c r="Q8">
+      <c r="Q9" s="2">
         <v>23</v>
       </c>
-      <c r="R8">
+      <c r="R9" s="2">
         <v>26</v>
       </c>
-      <c r="S8">
+      <c r="S9" s="2">
         <v>15</v>
       </c>
-      <c r="T8">
+      <c r="T9" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10" s="2">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="E10" s="2">
         <v>6</v>
       </c>
-      <c r="F9">
+      <c r="F10" s="2">
         <v>3</v>
       </c>
-      <c r="G9">
+      <c r="G10" s="2">
         <v>4</v>
       </c>
-      <c r="H9">
+      <c r="H10" s="2">
         <v>8</v>
       </c>
-      <c r="I9">
+      <c r="I10" s="2">
         <v>5</v>
       </c>
-      <c r="J9">
+      <c r="J10" s="2">
         <v>7</v>
       </c>
-      <c r="K9">
+      <c r="K10" s="2">
         <v>9</v>
       </c>
-      <c r="L9">
+      <c r="L10" s="2">
         <v>0</v>
       </c>
-      <c r="M9">
+      <c r="M10" s="2">
         <v>4</v>
       </c>
-      <c r="N9">
+      <c r="N10" s="2">
         <v>4</v>
       </c>
-      <c r="O9">
+      <c r="O10" s="2">
         <v>15</v>
       </c>
-      <c r="P9">
+      <c r="P10" s="2">
         <v>19</v>
       </c>
-      <c r="Q9">
+      <c r="Q10" s="2">
         <v>13</v>
       </c>
-      <c r="R9">
+      <c r="R10" s="2">
         <v>16</v>
       </c>
-      <c r="S9">
+      <c r="S10" s="2">
         <v>11</v>
       </c>
-      <c r="T9">
+      <c r="T10" s="2">
         <v>18</v>
       </c>
     </row>

--- a/spreadsheets/stats/stats.xlsx
+++ b/spreadsheets/stats/stats.xlsx
@@ -8,22 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giovi\IdeaProjects\ChatGPTOracle\spreadsheets\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8BFA8E-DE71-4DC3-95F9-12A7599B9747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C52EEB0-CD13-4C81-8B08-64968931761A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Camera" sheetId="1" r:id="rId1"/>
     <sheet name="Monitor" sheetId="2" r:id="rId2"/>
     <sheet name="Notebook" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Camera!$A$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Camera!$A$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Camera!$B$2:$T$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Camera!$B$3:$T$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Camera!$B$4:$T$4</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -132,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -146,10 +139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -644,6 +634,8 @@
         <c:axId val="2079226735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1254,6 +1246,8 @@
         <c:axId val="945989247"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2477,6 +2471,8 @@
         <c:axId val="707963823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3084,6 +3080,8 @@
         <c:axId val="1068832319"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4303,6 +4301,8 @@
         <c:axId val="940208095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4910,6 +4910,8 @@
         <c:axId val="945990735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -10754,7 +10756,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>252412</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
@@ -11234,13 +11236,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11250,64 +11252,64 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>0.05</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>0.1</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>0.15</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>0.2</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>0.25</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>0.3</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>0.35</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>0.4</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>0.45</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>0.5</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <v>0.6</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <v>0.65</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <v>0.7</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <v>0.75</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="6">
         <v>0.8</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="6">
         <v>0.85</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="6">
         <v>0.9</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="6">
         <v>0.95</v>
       </c>
     </row>
@@ -11929,69 +11931,69 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>0.05</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>0.1</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>0.15</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>0.2</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>0.25</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>0.3</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>0.35</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>0.4</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>0.45</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>0.5</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <v>0.6</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <v>0.65</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <v>0.7</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <v>0.75</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="6">
         <v>0.8</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="6">
         <v>0.85</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="6">
         <v>0.9</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="6">
         <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4">
@@ -12072,7 +12074,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4">
@@ -12153,7 +12155,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="4">
@@ -12234,7 +12236,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4">
@@ -12315,7 +12317,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4">
@@ -12377,7 +12379,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4">
@@ -12439,7 +12441,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4">
@@ -12501,7 +12503,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4">
@@ -12573,7 +12575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0111689-8D6F-4FB5-9C3E-C2EDB14D26BA}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:T2"/>
     </sheetView>
   </sheetViews>
@@ -12588,64 +12590,64 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>0.05</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>0.1</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>0.15</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>0.2</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>0.25</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>0.3</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>0.35</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>0.4</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>0.45</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>0.5</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <v>0.6</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <v>0.65</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <v>0.7</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <v>0.75</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="6">
         <v>0.8</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="6">
         <v>0.85</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="6">
         <v>0.9</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="6">
         <v>0.95</v>
       </c>
     </row>

--- a/spreadsheets/stats/stats.xlsx
+++ b/spreadsheets/stats/stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giovi\IdeaProjects\ChatGPTOracle\spreadsheets\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C52EEB0-CD13-4C81-8B08-64968931761A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE2A080-CA07-44F2-8634-4E354375036E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Camera" sheetId="1" r:id="rId1"/>
@@ -11240,18 +11240,18 @@
       <selection activeCell="B2" sqref="B2:T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1328125" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -11394,7 +11394,7 @@
         <v>0.99062444719617893</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -11475,7 +11475,7 @@
         <v>0.84684581407144544</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>0.99892971815911524</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>0.98245614035087714</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -11761,7 +11761,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -11920,17 +11920,17 @@
       <selection activeCell="B2" sqref="B2:T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1328125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -11992,7 +11992,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>0.98973814578910113</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>0.83222715727158258</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>0.99821556031406133</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>0.98140350877192983</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -12378,7 +12378,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -12502,7 +12502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -12579,17 +12579,17 @@
       <selection activeCell="B2" sqref="B2:T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -12651,7 +12651,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -12732,7 +12732,7 @@
         <v>0.99613084769609572</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>0.92710169583564639</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -12894,7 +12894,7 @@
         <v>0.99858956276445698</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>0.99368421052631584</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -13037,7 +13037,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
